--- a/create.xlsx
+++ b/create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinhuaiwang/go/src/f5ltm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2C301540-7C80-E74C-8841-ED645DB6F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{924062EB-4672-F04F-B824-4DC86917B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28240" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="60" uniqueCount="36">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="60" uniqueCount="35">
   <si>
     <t>virtual_name</t>
   </si>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>vs_ip_protocol</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> persistence</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -139,10 +135,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>persistence</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1111,8 +1108,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1151,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1189,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -1227,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -1303,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>

--- a/create.xlsx
+++ b/create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinhuaiwang/go/src/f5ltm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C7E32E40-8E89-AA4E-861B-ECFDEF5D1265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E29F4F62-A602-754C-8309-486C11D46C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1200" yWindow="1980" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,14 @@
   <si>
     <t>10.95.64.58:18080
 10.95.64.59:18080
-10.95.64.60:18080</t>
+10.95.64.60:18080
+10.95.64.54:18080
+10.95.64.61:18080
+10.95.64.53:18080
+10.95.64.52:18080
+10.95.64.62:18080 10.95.64.65:18080
+10.95.64.44:18080
+10.95.64.63:18080</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="51">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="170">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>

--- a/create.xlsx
+++ b/create.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEDAFAC-E63C-F949-AF3D-D5806A50F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26720" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t>partition</t>
   </si>
@@ -82,157 +83,142 @@
     <t>10.10.10.1:80</t>
   </si>
   <si>
+    <t>10.95.64.44:18080 10.95.64.52:18080 10.95.64.53:18080 10.95.64.54:18080 10.95.64.58:18080 10.95.64.59:18080 10.95.64.60:18080 10.95.64.61:18080 10.95.64.62:18080 10.95.64.63:18080 10.95.64.65:18080</t>
+  </si>
+  <si>
+    <t>automap</t>
+  </si>
+  <si>
+    <t>VS_Test_2</t>
+  </si>
+  <si>
+    <t>10.10.10.2:80</t>
+  </si>
+  <si>
+    <t>Pool_Test_2</t>
+  </si>
+  <si>
+    <t>10.95.64.58:8080 10.95.64.59:8080</t>
+  </si>
+  <si>
+    <t>VS_Test_3</t>
+  </si>
+  <si>
+    <t>10.10.10.1:81</t>
+  </si>
+  <si>
+    <t>Pool_Test_3</t>
+  </si>
+  <si>
+    <t>10.95.64.58:9000 10.95.64.59:9000</t>
+  </si>
+  <si>
+    <t>VS_Test_4</t>
+  </si>
+  <si>
+    <t>10.10.10.2:81</t>
+  </si>
+  <si>
+    <t>Pool_Test_4</t>
+  </si>
+  <si>
+    <t>10.217.51.63:9888 10.217.51.64:9888</t>
+  </si>
+  <si>
+    <t>VS_Test_5</t>
+  </si>
+  <si>
+    <t>10.10.10.1:82</t>
+  </si>
+  <si>
+    <t>Pool_Test_5</t>
+  </si>
+  <si>
+    <t>10.95.64.58:18080 10.95.64.59:18080</t>
+  </si>
+  <si>
+    <t>VS_Test_6</t>
+  </si>
+  <si>
+    <t>10.10.10.2:82</t>
+  </si>
+  <si>
+    <t>Pool_Test_6</t>
+  </si>
+  <si>
+    <t>VS_Test_7</t>
+  </si>
+  <si>
+    <t>10.10.10.1:83</t>
+  </si>
+  <si>
+    <t>Pool_Test_7</t>
+  </si>
+  <si>
+    <t>VS_Test_8</t>
+  </si>
+  <si>
+    <t>2001::a.80</t>
+  </si>
+  <si>
+    <t>::/0</t>
+  </si>
+  <si>
+    <t>Pool_Test_8</t>
+  </si>
+  <si>
+    <t>VS_Test_9</t>
+  </si>
+  <si>
+    <t>2002::a.80</t>
+  </si>
+  <si>
+    <t>Pool_Test_9</t>
+  </si>
+  <si>
+    <t>2::8.80 2::9.80</t>
+  </si>
+  <si>
+    <t>fastL4</t>
+  </si>
+  <si>
+    <t>http tcp</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>gateway_icmp</t>
+  </si>
+  <si>
+    <t>10.95.64.58:8080 10.95.64.59:8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Pool_Test_1</t>
-  </si>
-  <si>
-    <t>10.95.64.44:18080 10.95.64.52:18080 10.95.64.53:18080 10.95.64.54:18080 10.95.64.58:18080 10.95.64.59:18080 10.95.64.60:18080 10.95.64.61:18080 10.95.64.62:18080 10.95.64.63:18080 10.95.64.65:18080</t>
-  </si>
-  <si>
-    <t>automap</t>
-  </si>
-  <si>
-    <t>VS_Test_2</t>
-  </si>
-  <si>
-    <t>10.10.10.2:80</t>
-  </si>
-  <si>
-    <t>Pool_Test_2</t>
-  </si>
-  <si>
-    <t>10.95.64.58:8080 10.95.64.59:8080</t>
-  </si>
-  <si>
-    <t>VS_Test_3</t>
-  </si>
-  <si>
-    <t>10.10.10.1:81</t>
-  </si>
-  <si>
-    <t>Pool_Test_3</t>
-  </si>
-  <si>
-    <t>10.95.64.58:9000 10.95.64.59:9000</t>
-  </si>
-  <si>
-    <t>VS_Test_4</t>
-  </si>
-  <si>
-    <t>10.10.10.2:81</t>
-  </si>
-  <si>
-    <t>Pool_Test_4</t>
-  </si>
-  <si>
-    <t>10.217.51.63:9888 10.217.51.64:9888</t>
-  </si>
-  <si>
-    <t>VS_Test_5</t>
-  </si>
-  <si>
-    <t>10.10.10.1:82</t>
-  </si>
-  <si>
-    <t>Pool_Test_5</t>
-  </si>
-  <si>
-    <t>10.95.64.58:18080 10.95.64.59:18080</t>
-  </si>
-  <si>
-    <t>VS_Test_6</t>
-  </si>
-  <si>
-    <t>10.10.10.2:82</t>
-  </si>
-  <si>
-    <t>Pool_Test_6</t>
-  </si>
-  <si>
-    <t>VS_Test_7</t>
-  </si>
-  <si>
-    <t>10.10.10.1:83</t>
-  </si>
-  <si>
-    <t>Pool_Test_7</t>
-  </si>
-  <si>
-    <t>VS_Test_8</t>
-  </si>
-  <si>
-    <t>2001::a.80</t>
-  </si>
-  <si>
-    <t>::/0</t>
-  </si>
-  <si>
-    <t>Pool_Test_8</t>
-  </si>
-  <si>
-    <t>VS_Test_9</t>
-  </si>
-  <si>
-    <t>2002::a.80</t>
-  </si>
-  <si>
-    <t>Pool_Test_9</t>
-  </si>
-  <si>
-    <t>2::8.80 2::9.80</t>
-  </si>
-  <si>
-    <t>listener</t>
-  </si>
-  <si>
-    <t>192.168.10.84:53</t>
-  </si>
-  <si>
-    <t>udp</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>1::1.25</t>
-  </si>
-  <si>
-    <t>virtual_test</t>
-  </si>
-  <si>
-    <t>192.168.10.29:80</t>
-  </si>
-  <si>
-    <t>pool_test</t>
-  </si>
-  <si>
-    <t>192.168.7.9:80</t>
-  </si>
-  <si>
-    <t>fastL4</t>
-  </si>
-  <si>
-    <t>http tcp</t>
-  </si>
-  <si>
-    <t>dns udp_gtm_dns</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>gateway_icmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool_Test_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,10 +245,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -523,14 +517,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -591,13 +593,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -612,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,14 +637,14 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
@@ -650,18 +652,18 @@
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -673,16 +675,16 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
@@ -691,18 +693,18 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -714,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -735,15 +737,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -755,16 +757,16 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -776,15 +778,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -799,13 +801,13 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
@@ -817,15 +819,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -837,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -858,15 +860,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -878,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -899,36 +901,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -940,36 +942,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
         <v>7</v>
@@ -978,43 +980,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="L12" t="s">
         <v>7</v>
       </c>
@@ -1022,40 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
+    <row r="13" spans="1:13">
       <c r="L13" t="s">
         <v>7</v>
       </c>
@@ -1063,40 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="1:13">
       <c r="L14" t="s">
         <v>7</v>
       </c>
@@ -1105,5 +1008,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>